--- a/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>345530</v>
+        <v>345532</v>
       </c>
       <c r="D10" t="n">
         <v>64164</v>
       </c>
       <c r="E10" t="n">
-        <v>1817671211</v>
+        <v>1817701330</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D11" t="n">
         <v>254</v>
       </c>
       <c r="E11" t="n">
-        <v>46384907</v>
+        <v>46515184</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187831</v>
+        <v>187832</v>
       </c>
       <c r="D13" t="n">
         <v>33261</v>
       </c>
       <c r="E13" t="n">
-        <v>1165047270</v>
+        <v>1165163461</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71256</v>
+        <v>71261</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110281502</v>
+        <v>110287231</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18840</v>
+        <v>18845</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75078847</v>
+        <v>75099352</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16911</v>
+        <v>16917</v>
       </c>
       <c r="D93" t="n">
         <v>2945</v>
       </c>
       <c r="E93" t="n">
-        <v>50425027</v>
+        <v>50434566</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6284</v>
+        <v>6285</v>
       </c>
       <c r="D98" t="n">
         <v>911</v>
       </c>
       <c r="E98" t="n">
-        <v>19289207</v>
+        <v>19290013</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9328</v>
+        <v>9333</v>
       </c>
       <c r="D100" t="n">
         <v>1304</v>
       </c>
       <c r="E100" t="n">
-        <v>23689436</v>
+        <v>23704653</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>145225</v>
+        <v>145226</v>
       </c>
       <c r="D112" t="n">
         <v>27839</v>
       </c>
       <c r="E112" t="n">
-        <v>716132401</v>
+        <v>716158923</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5289,13 +5289,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>8981</v>
+        <v>8982</v>
       </c>
       <c r="D119" t="n">
         <v>1425</v>
       </c>
       <c r="E119" t="n">
-        <v>37086553</v>
+        <v>37087784</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306096</v>
+        <v>1306111</v>
       </c>
       <c r="D121" t="n">
         <v>220384</v>
       </c>
       <c r="E121" t="n">
-        <v>2274458252</v>
+        <v>2274508151</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633306</v>
+        <v>633318</v>
       </c>
       <c r="D129" t="n">
         <v>104964</v>
       </c>
       <c r="E129" t="n">
-        <v>3425968895</v>
+        <v>3426201653</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="D130" t="n">
         <v>619</v>
       </c>
       <c r="E130" t="n">
-        <v>140270462</v>
+        <v>140350460</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585562</v>
+        <v>585588</v>
       </c>
       <c r="D132" t="n">
-        <v>90776</v>
+        <v>90777</v>
       </c>
       <c r="E132" t="n">
-        <v>3457868434</v>
+        <v>3459563006</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>76633</v>
+        <v>76637</v>
       </c>
       <c r="D139" t="n">
         <v>17494</v>
       </c>
       <c r="E139" t="n">
-        <v>114126711</v>
+        <v>114129393</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25055</v>
+        <v>25065</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92126085</v>
+        <v>92331999</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6355,13 +6355,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D145" t="n">
         <v>14</v>
       </c>
       <c r="E145" t="n">
-        <v>6360066</v>
+        <v>6534296</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7437</v>
+        <v>7438</v>
       </c>
       <c r="D146" t="n">
         <v>1667</v>
       </c>
       <c r="E146" t="n">
-        <v>37677476</v>
+        <v>37681278</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6560,13 +6560,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D150" t="n">
         <v>175</v>
       </c>
       <c r="E150" t="n">
-        <v>2011806</v>
+        <v>2015502</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39917</v>
+        <v>39920</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>60356678</v>
+        <v>60358891</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18429</v>
+        <v>18430</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>72553333</v>
+        <v>72554723</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12390</v>
+        <v>12394</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>39995711</v>
+        <v>40027556</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236813</v>
+        <v>236818</v>
       </c>
       <c r="D186" t="n">
         <v>46317</v>
       </c>
       <c r="E186" t="n">
-        <v>1189658270</v>
+        <v>1189702070</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8364,13 +8364,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>18376</v>
+        <v>18378</v>
       </c>
       <c r="D194" t="n">
         <v>2990</v>
       </c>
       <c r="E194" t="n">
-        <v>71340211</v>
+        <v>71345179</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>230251</v>
+        <v>230252</v>
       </c>
       <c r="D215" t="n">
         <v>52406</v>
       </c>
       <c r="E215" t="n">
-        <v>408697207</v>
+        <v>408700746</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9471,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>135492</v>
+        <v>135494</v>
       </c>
       <c r="D221" t="n">
         <v>27175</v>
       </c>
       <c r="E221" t="n">
-        <v>681805345</v>
+        <v>681816845</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205894</v>
+        <v>205897</v>
       </c>
       <c r="D240" t="n">
         <v>33983</v>
       </c>
       <c r="E240" t="n">
-        <v>1068407716</v>
+        <v>1068613038</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
